--- a/data/processed/rhyolitic_glasses/calczaf_files/calczaf_outputs.xlsx
+++ b/data/processed/rhyolitic_glasses/calczaf_files/calczaf_outputs.xlsx
@@ -899,40 +899,40 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1.329</v>
+        <v>1.324</v>
       </c>
       <c r="C11">
-        <v>1.333</v>
+        <v>1.328</v>
       </c>
       <c r="D11">
+        <v>1.331</v>
+      </c>
+      <c r="E11">
         <v>1.335</v>
       </c>
-      <c r="E11">
-        <v>1.339</v>
-      </c>
       <c r="F11">
-        <v>1.333</v>
+        <v>1.328</v>
       </c>
       <c r="G11">
-        <v>1.33</v>
+        <v>1.326</v>
       </c>
       <c r="H11">
-        <v>1.329</v>
+        <v>1.324</v>
       </c>
       <c r="I11">
-        <v>1.329</v>
+        <v>1.324</v>
       </c>
       <c r="J11">
-        <v>1.332</v>
+        <v>1.328</v>
       </c>
       <c r="K11">
         <v>0.004</v>
       </c>
       <c r="L11">
-        <v>1.329</v>
+        <v>1.324</v>
       </c>
       <c r="M11">
-        <v>1.339</v>
+        <v>1.335</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -940,40 +940,40 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.544</v>
+        <v>0.586</v>
       </c>
       <c r="C12">
-        <v>0.508</v>
+        <v>0.547</v>
       </c>
       <c r="D12">
-        <v>0.488</v>
+        <v>0.526</v>
       </c>
       <c r="E12">
-        <v>0.456</v>
+        <v>0.492</v>
       </c>
       <c r="F12">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="G12">
-        <v>0.531</v>
+        <v>0.573</v>
       </c>
       <c r="H12">
-        <v>0.544</v>
+        <v>0.586</v>
       </c>
       <c r="I12">
-        <v>0.543</v>
+        <v>0.585</v>
       </c>
       <c r="J12">
-        <v>0.516</v>
+        <v>0.556</v>
       </c>
       <c r="K12">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="L12">
-        <v>0.456</v>
+        <v>0.492</v>
       </c>
       <c r="M12">
-        <v>0.544</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1022,40 +1022,40 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>53.633</v>
+        <v>53.596</v>
       </c>
       <c r="C14">
-        <v>53.665</v>
+        <v>53.63</v>
       </c>
       <c r="D14">
-        <v>53.682</v>
+        <v>53.648</v>
       </c>
       <c r="E14">
-        <v>53.711</v>
+        <v>53.679</v>
       </c>
       <c r="F14">
-        <v>53.663</v>
+        <v>53.628</v>
       </c>
       <c r="G14">
-        <v>53.644</v>
+        <v>53.607</v>
       </c>
       <c r="H14">
-        <v>53.633</v>
+        <v>53.595</v>
       </c>
       <c r="I14">
-        <v>53.634</v>
+        <v>53.596</v>
       </c>
       <c r="J14">
-        <v>53.658</v>
+        <v>53.622</v>
       </c>
       <c r="K14">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="L14">
-        <v>53.633</v>
+        <v>53.595</v>
       </c>
       <c r="M14">
-        <v>53.711</v>
+        <v>53.679</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1514,40 +1514,40 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>11.876</v>
+        <v>11.834</v>
       </c>
       <c r="C27">
-        <v>11.912</v>
+        <v>11.872</v>
       </c>
       <c r="D27">
-        <v>11.931</v>
+        <v>11.893</v>
       </c>
       <c r="E27">
-        <v>11.963</v>
+        <v>11.928</v>
       </c>
       <c r="F27">
-        <v>11.909</v>
+        <v>11.87</v>
       </c>
       <c r="G27">
-        <v>11.888</v>
+        <v>11.847</v>
       </c>
       <c r="H27">
-        <v>11.875</v>
+        <v>11.833</v>
       </c>
       <c r="I27">
-        <v>11.877</v>
+        <v>11.835</v>
       </c>
       <c r="J27">
-        <v>11.904</v>
+        <v>11.864</v>
       </c>
       <c r="K27">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="L27">
-        <v>11.875</v>
+        <v>11.833</v>
       </c>
       <c r="M27">
-        <v>11.963</v>
+        <v>11.928</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1555,40 +1555,40 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.544</v>
+        <v>0.586</v>
       </c>
       <c r="C28">
-        <v>0.508</v>
+        <v>0.547</v>
       </c>
       <c r="D28">
-        <v>0.488</v>
+        <v>0.526</v>
       </c>
       <c r="E28">
-        <v>0.456</v>
+        <v>0.492</v>
       </c>
       <c r="F28">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="G28">
-        <v>0.531</v>
+        <v>0.573</v>
       </c>
       <c r="H28">
-        <v>0.544</v>
+        <v>0.586</v>
       </c>
       <c r="I28">
-        <v>0.543</v>
+        <v>0.585</v>
       </c>
       <c r="J28">
-        <v>0.516</v>
+        <v>0.556</v>
       </c>
       <c r="K28">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="L28">
-        <v>0.456</v>
+        <v>0.492</v>
       </c>
       <c r="M28">
-        <v>0.544</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1655,7 +1655,7 @@
         <v>100</v>
       </c>
       <c r="H30">
-        <v>99.999</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>99.999</v>
+        <v>100</v>
       </c>
       <c r="M30">
         <v>100</v>
@@ -1719,40 +1719,40 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>16.97</v>
+        <v>16.981</v>
       </c>
       <c r="C33">
-        <v>16.961</v>
+        <v>16.971</v>
       </c>
       <c r="D33">
-        <v>16.956</v>
+        <v>16.965</v>
       </c>
       <c r="E33">
-        <v>16.948</v>
+        <v>16.957</v>
       </c>
       <c r="F33">
-        <v>16.961</v>
+        <v>16.972</v>
       </c>
       <c r="G33">
-        <v>16.967</v>
+        <v>16.977</v>
       </c>
       <c r="H33">
-        <v>16.97</v>
+        <v>16.981</v>
       </c>
       <c r="I33">
-        <v>16.97</v>
+        <v>16.98</v>
       </c>
       <c r="J33">
-        <v>16.963</v>
+        <v>16.973</v>
       </c>
       <c r="K33">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L33">
-        <v>16.948</v>
+        <v>16.957</v>
       </c>
       <c r="M33">
-        <v>16.97</v>
+        <v>16.981</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1760,40 +1760,40 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>4.292</v>
+        <v>4.295</v>
       </c>
       <c r="C34">
-        <v>4.29</v>
+        <v>4.293</v>
       </c>
       <c r="D34">
+        <v>4.291</v>
+      </c>
+      <c r="E34">
         <v>4.289</v>
       </c>
-      <c r="E34">
-        <v>4.287</v>
-      </c>
       <c r="F34">
-        <v>4.29</v>
+        <v>4.293</v>
       </c>
       <c r="G34">
-        <v>4.292</v>
+        <v>4.294</v>
       </c>
       <c r="H34">
-        <v>4.292</v>
+        <v>4.295</v>
       </c>
       <c r="I34">
-        <v>4.292</v>
+        <v>4.295</v>
       </c>
       <c r="J34">
-        <v>4.291</v>
+        <v>4.293</v>
       </c>
       <c r="K34">
         <v>0.002</v>
       </c>
       <c r="L34">
-        <v>4.287</v>
+        <v>4.289</v>
       </c>
       <c r="M34">
-        <v>4.292</v>
+        <v>4.295</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1804,7 +1804,7 @@
         <v>0.303</v>
       </c>
       <c r="C35">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="D35">
         <v>0.302</v>
@@ -1813,10 +1813,10 @@
         <v>0.302</v>
       </c>
       <c r="F35">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="G35">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="H35">
         <v>0.303</v>
@@ -1825,7 +1825,7 @@
         <v>0.303</v>
       </c>
       <c r="J35">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="C40">
         <v>0.801</v>
@@ -2015,19 +2015,19 @@
         <v>0.801</v>
       </c>
       <c r="E40">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="F40">
         <v>0.801</v>
       </c>
       <c r="G40">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="H40">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="I40">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="J40">
         <v>0.801</v>
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="M40">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2047,40 +2047,40 @@
         <v>13</v>
       </c>
       <c r="B41">
+        <v>2.79</v>
+      </c>
+      <c r="C41">
         <v>2.789</v>
       </c>
-      <c r="C41">
+      <c r="D41">
+        <v>2.788</v>
+      </c>
+      <c r="E41">
         <v>2.787</v>
       </c>
-      <c r="D41">
-        <v>2.786</v>
-      </c>
-      <c r="E41">
-        <v>2.785</v>
-      </c>
       <c r="F41">
-        <v>2.787</v>
+        <v>2.789</v>
       </c>
       <c r="G41">
-        <v>2.788</v>
+        <v>2.79</v>
       </c>
       <c r="H41">
+        <v>2.791</v>
+      </c>
+      <c r="I41">
+        <v>2.79</v>
+      </c>
+      <c r="J41">
         <v>2.789</v>
-      </c>
-      <c r="I41">
-        <v>2.789</v>
-      </c>
-      <c r="J41">
-        <v>2.788</v>
       </c>
       <c r="K41">
         <v>0.001</v>
       </c>
       <c r="L41">
-        <v>2.785</v>
+        <v>2.787</v>
       </c>
       <c r="M41">
-        <v>2.789</v>
+        <v>2.791</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2088,40 +2088,40 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>20.906</v>
+        <v>20.845</v>
       </c>
       <c r="C42">
-        <v>20.958</v>
+        <v>20.901</v>
       </c>
       <c r="D42">
-        <v>20.985</v>
+        <v>20.931</v>
       </c>
       <c r="E42">
-        <v>21.032</v>
+        <v>20.98</v>
       </c>
       <c r="F42">
-        <v>20.954</v>
+        <v>20.897</v>
       </c>
       <c r="G42">
-        <v>20.923</v>
+        <v>20.864</v>
       </c>
       <c r="H42">
-        <v>20.905</v>
+        <v>20.844</v>
       </c>
       <c r="I42">
-        <v>20.907</v>
+        <v>20.846</v>
       </c>
       <c r="J42">
-        <v>20.946</v>
+        <v>20.888</v>
       </c>
       <c r="K42">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="L42">
-        <v>20.905</v>
+        <v>20.844</v>
       </c>
       <c r="M42">
-        <v>21.032</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2129,40 +2129,40 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>0.615</v>
+        <v>0.664</v>
       </c>
       <c r="C43">
-        <v>0.574</v>
+        <v>0.619</v>
       </c>
       <c r="D43">
-        <v>0.552</v>
+        <v>0.596</v>
       </c>
       <c r="E43">
-        <v>0.516</v>
+        <v>0.556</v>
       </c>
       <c r="F43">
-        <v>0.577</v>
+        <v>0.623</v>
       </c>
       <c r="G43">
-        <v>0.602</v>
+        <v>0.649</v>
       </c>
       <c r="H43">
-        <v>0.616</v>
+        <v>0.664</v>
       </c>
       <c r="I43">
-        <v>0.614</v>
+        <v>0.662</v>
       </c>
       <c r="J43">
-        <v>0.583</v>
+        <v>0.629</v>
       </c>
       <c r="K43">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="L43">
-        <v>0.516</v>
+        <v>0.556</v>
       </c>
       <c r="M43">
-        <v>0.616</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2211,40 +2211,40 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>53.156</v>
+        <v>53.152</v>
       </c>
       <c r="C45">
-        <v>53.158</v>
+        <v>53.155</v>
       </c>
       <c r="D45">
+        <v>53.157</v>
+      </c>
+      <c r="E45">
         <v>53.16</v>
       </c>
-      <c r="E45">
-        <v>53.162</v>
-      </c>
       <c r="F45">
-        <v>53.158</v>
+        <v>53.155</v>
       </c>
       <c r="G45">
-        <v>53.157</v>
+        <v>53.153</v>
       </c>
       <c r="H45">
-        <v>53.156</v>
+        <v>53.152</v>
       </c>
       <c r="I45">
-        <v>53.156</v>
+        <v>53.152</v>
       </c>
       <c r="J45">
-        <v>53.158</v>
+        <v>53.155</v>
       </c>
       <c r="K45">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="L45">
-        <v>53.156</v>
+        <v>53.152</v>
       </c>
       <c r="M45">
-        <v>53.162</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2719,40 +2719,40 @@
         <v>14</v>
       </c>
       <c r="B11">
+        <v>1.278</v>
+      </c>
+      <c r="C11">
+        <v>1.284</v>
+      </c>
+      <c r="D11">
+        <v>1.287</v>
+      </c>
+      <c r="E11">
+        <v>1.291</v>
+      </c>
+      <c r="F11">
         <v>1.285</v>
       </c>
-      <c r="C11">
-        <v>1.291</v>
-      </c>
-      <c r="D11">
-        <v>1.294</v>
-      </c>
-      <c r="E11">
-        <v>1.298</v>
-      </c>
-      <c r="F11">
-        <v>1.292</v>
-      </c>
       <c r="G11">
-        <v>1.29</v>
+        <v>1.283</v>
       </c>
       <c r="H11">
-        <v>1.289</v>
+        <v>1.281</v>
       </c>
       <c r="I11">
-        <v>1.289</v>
+        <v>1.281</v>
       </c>
       <c r="J11">
-        <v>1.291</v>
+        <v>1.284</v>
       </c>
       <c r="K11">
         <v>0.004</v>
       </c>
       <c r="L11">
-        <v>1.285</v>
+        <v>1.278</v>
       </c>
       <c r="M11">
-        <v>1.298</v>
+        <v>1.291</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2760,40 +2760,40 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.9320000000000001</v>
+        <v>1.001</v>
       </c>
       <c r="C12">
-        <v>0.883</v>
+        <v>0.949</v>
       </c>
       <c r="D12">
-        <v>0.853</v>
+        <v>0.919</v>
       </c>
       <c r="E12">
-        <v>0.8149999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F12">
-        <v>0.872</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G12">
-        <v>0.887</v>
+        <v>0.958</v>
       </c>
       <c r="H12">
-        <v>0.901</v>
+        <v>0.969</v>
       </c>
       <c r="I12">
-        <v>0.904</v>
+        <v>0.973</v>
       </c>
       <c r="J12">
-        <v>0.881</v>
+        <v>0.948</v>
       </c>
       <c r="K12">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="L12">
-        <v>0.8149999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="M12">
-        <v>0.9320000000000001</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2842,40 +2842,40 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>53.289</v>
+        <v>53.227</v>
       </c>
       <c r="C14">
-        <v>53.332</v>
+        <v>53.273</v>
       </c>
       <c r="D14">
-        <v>53.358</v>
+        <v>53.3</v>
       </c>
       <c r="E14">
-        <v>53.392</v>
+        <v>53.335</v>
       </c>
       <c r="F14">
-        <v>53.342</v>
+        <v>53.281</v>
       </c>
       <c r="G14">
-        <v>53.328</v>
+        <v>53.265</v>
       </c>
       <c r="H14">
-        <v>53.316</v>
+        <v>53.256</v>
       </c>
       <c r="I14">
-        <v>53.313</v>
+        <v>53.252</v>
       </c>
       <c r="J14">
-        <v>53.334</v>
+        <v>53.274</v>
       </c>
       <c r="K14">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="L14">
-        <v>53.289</v>
+        <v>53.227</v>
       </c>
       <c r="M14">
-        <v>53.392</v>
+        <v>53.335</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3334,40 +3334,40 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>11.488</v>
+        <v>11.419</v>
       </c>
       <c r="C27">
-        <v>11.536</v>
+        <v>11.471</v>
       </c>
       <c r="D27">
-        <v>11.566</v>
+        <v>11.5</v>
       </c>
       <c r="E27">
-        <v>11.604</v>
+        <v>11.54</v>
       </c>
       <c r="F27">
-        <v>11.548</v>
+        <v>11.479</v>
       </c>
       <c r="G27">
-        <v>11.532</v>
+        <v>11.461</v>
       </c>
       <c r="H27">
-        <v>11.518</v>
+        <v>11.451</v>
       </c>
       <c r="I27">
-        <v>11.515</v>
+        <v>11.447</v>
       </c>
       <c r="J27">
-        <v>11.539</v>
+        <v>11.471</v>
       </c>
       <c r="K27">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="L27">
-        <v>11.488</v>
+        <v>11.419</v>
       </c>
       <c r="M27">
-        <v>11.604</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3375,40 +3375,40 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.9320000000000001</v>
+        <v>1.001</v>
       </c>
       <c r="C28">
-        <v>0.883</v>
+        <v>0.949</v>
       </c>
       <c r="D28">
-        <v>0.853</v>
+        <v>0.919</v>
       </c>
       <c r="E28">
-        <v>0.8149999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F28">
-        <v>0.872</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G28">
-        <v>0.887</v>
+        <v>0.958</v>
       </c>
       <c r="H28">
-        <v>0.901</v>
+        <v>0.969</v>
       </c>
       <c r="I28">
-        <v>0.904</v>
+        <v>0.973</v>
       </c>
       <c r="J28">
-        <v>0.881</v>
+        <v>0.948</v>
       </c>
       <c r="K28">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="L28">
-        <v>0.8149999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="M28">
-        <v>0.9320000000000001</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3469,13 +3469,13 @@
         <v>100</v>
       </c>
       <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
         <v>99.999</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-      <c r="H30">
-        <v>100</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -3539,40 +3539,40 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>17.07</v>
+        <v>17.088</v>
       </c>
       <c r="C33">
-        <v>17.057</v>
+        <v>17.074</v>
       </c>
       <c r="D33">
-        <v>17.05</v>
+        <v>17.067</v>
       </c>
       <c r="E33">
-        <v>17.04</v>
+        <v>17.056</v>
       </c>
       <c r="F33">
-        <v>17.054</v>
+        <v>17.072</v>
       </c>
       <c r="G33">
-        <v>17.058</v>
+        <v>17.077</v>
       </c>
       <c r="H33">
-        <v>17.062</v>
+        <v>17.079</v>
       </c>
       <c r="I33">
-        <v>17.063</v>
+        <v>17.08</v>
       </c>
       <c r="J33">
-        <v>17.057</v>
+        <v>17.074</v>
       </c>
       <c r="K33">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L33">
-        <v>17.04</v>
+        <v>17.056</v>
       </c>
       <c r="M33">
-        <v>17.07</v>
+        <v>17.088</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3580,40 +3580,40 @@
         <v>6</v>
       </c>
       <c r="B34">
+        <v>4.322</v>
+      </c>
+      <c r="C34">
+        <v>4.319</v>
+      </c>
+      <c r="D34">
+        <v>4.317</v>
+      </c>
+      <c r="E34">
+        <v>4.314</v>
+      </c>
+      <c r="F34">
         <v>4.318</v>
       </c>
-      <c r="C34">
-        <v>4.315</v>
-      </c>
-      <c r="D34">
-        <v>4.313</v>
-      </c>
-      <c r="E34">
-        <v>4.31</v>
-      </c>
-      <c r="F34">
-        <v>4.314</v>
-      </c>
       <c r="G34">
-        <v>4.315</v>
+        <v>4.319</v>
       </c>
       <c r="H34">
-        <v>4.316</v>
+        <v>4.32</v>
       </c>
       <c r="I34">
-        <v>4.316</v>
+        <v>4.32</v>
       </c>
       <c r="J34">
-        <v>4.314</v>
+        <v>4.319</v>
       </c>
       <c r="K34">
         <v>0.002</v>
       </c>
       <c r="L34">
-        <v>4.31</v>
+        <v>4.314</v>
       </c>
       <c r="M34">
-        <v>4.318</v>
+        <v>4.322</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>0.304</v>
+        <v>0.305</v>
       </c>
       <c r="C35">
         <v>0.304</v>
@@ -3654,7 +3654,7 @@
         <v>0.304</v>
       </c>
       <c r="M35">
-        <v>0.304</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3826,22 +3826,22 @@
         <v>12</v>
       </c>
       <c r="B40">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="C40">
         <v>0.806</v>
       </c>
-      <c r="C40">
+      <c r="D40">
+        <v>0.806</v>
+      </c>
+      <c r="E40">
         <v>0.805</v>
       </c>
-      <c r="D40">
-        <v>0.805</v>
-      </c>
-      <c r="E40">
-        <v>0.804</v>
-      </c>
       <c r="F40">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="G40">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="H40">
         <v>0.806</v>
@@ -3850,16 +3850,16 @@
         <v>0.806</v>
       </c>
       <c r="J40">
+        <v>0.806</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>0.805</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0.804</v>
-      </c>
       <c r="M40">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3867,40 +3867,40 @@
         <v>13</v>
       </c>
       <c r="B41">
+        <v>2.808</v>
+      </c>
+      <c r="C41">
+        <v>2.806</v>
+      </c>
+      <c r="D41">
         <v>2.805</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>2.803</v>
       </c>
-      <c r="D41">
-        <v>2.802</v>
-      </c>
-      <c r="E41">
-        <v>2.8</v>
-      </c>
       <c r="F41">
-        <v>2.803</v>
+        <v>2.806</v>
       </c>
       <c r="G41">
-        <v>2.803</v>
+        <v>2.806</v>
       </c>
       <c r="H41">
-        <v>2.804</v>
+        <v>2.807</v>
       </c>
       <c r="I41">
-        <v>2.804</v>
+        <v>2.807</v>
       </c>
       <c r="J41">
-        <v>2.803</v>
+        <v>2.806</v>
       </c>
       <c r="K41">
         <v>0.002</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="M41">
-        <v>2.805</v>
+        <v>2.808</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3908,40 +3908,40 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>20.342</v>
+        <v>20.24</v>
       </c>
       <c r="C42">
-        <v>20.412</v>
+        <v>20.316</v>
       </c>
       <c r="D42">
-        <v>20.456</v>
+        <v>20.36</v>
       </c>
       <c r="E42">
-        <v>20.512</v>
+        <v>20.418</v>
       </c>
       <c r="F42">
-        <v>20.429</v>
+        <v>20.329</v>
       </c>
       <c r="G42">
-        <v>20.407</v>
+        <v>20.303</v>
       </c>
       <c r="H42">
-        <v>20.386</v>
+        <v>20.288</v>
       </c>
       <c r="I42">
-        <v>20.382</v>
+        <v>20.282</v>
       </c>
       <c r="J42">
-        <v>20.416</v>
+        <v>20.317</v>
       </c>
       <c r="K42">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="L42">
-        <v>20.342</v>
+        <v>20.24</v>
       </c>
       <c r="M42">
-        <v>20.512</v>
+        <v>20.418</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3949,40 +3949,40 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>1.061</v>
+        <v>1.141</v>
       </c>
       <c r="C43">
-        <v>1.005</v>
+        <v>1.081</v>
       </c>
       <c r="D43">
-        <v>0.97</v>
+        <v>1.047</v>
       </c>
       <c r="E43">
-        <v>0.927</v>
+        <v>1.001</v>
       </c>
       <c r="F43">
-        <v>0.992</v>
+        <v>1.071</v>
       </c>
       <c r="G43">
-        <v>1.009</v>
+        <v>1.091</v>
       </c>
       <c r="H43">
-        <v>1.026</v>
+        <v>1.104</v>
       </c>
       <c r="I43">
-        <v>1.029</v>
+        <v>1.108</v>
       </c>
       <c r="J43">
-        <v>1.002</v>
+        <v>1.08</v>
       </c>
       <c r="K43">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="L43">
-        <v>0.927</v>
+        <v>1.001</v>
       </c>
       <c r="M43">
-        <v>1.061</v>
+        <v>1.141</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -4031,40 +4031,40 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>53.125</v>
+        <v>53.119</v>
       </c>
       <c r="C45">
+        <v>53.124</v>
+      </c>
+      <c r="D45">
+        <v>53.126</v>
+      </c>
+      <c r="E45">
         <v>53.129</v>
       </c>
-      <c r="D45">
-        <v>53.131</v>
-      </c>
-      <c r="E45">
-        <v>53.134</v>
-      </c>
       <c r="F45">
-        <v>53.13</v>
+        <v>53.124</v>
       </c>
       <c r="G45">
-        <v>53.129</v>
+        <v>53.123</v>
       </c>
       <c r="H45">
-        <v>53.127</v>
+        <v>53.122</v>
       </c>
       <c r="I45">
-        <v>53.127</v>
+        <v>53.122</v>
       </c>
       <c r="J45">
-        <v>53.129</v>
+        <v>53.124</v>
       </c>
       <c r="K45">
         <v>0.003</v>
       </c>
       <c r="L45">
-        <v>53.125</v>
+        <v>53.119</v>
       </c>
       <c r="M45">
-        <v>53.134</v>
+        <v>53.129</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4539,40 +4539,40 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1.264</v>
+        <v>1.255</v>
       </c>
       <c r="C11">
+        <v>1.262</v>
+      </c>
+      <c r="D11">
+        <v>1.266</v>
+      </c>
+      <c r="E11">
         <v>1.271</v>
       </c>
-      <c r="D11">
-        <v>1.275</v>
-      </c>
-      <c r="E11">
-        <v>1.28</v>
-      </c>
       <c r="F11">
-        <v>1.272</v>
+        <v>1.263</v>
       </c>
       <c r="G11">
-        <v>1.27</v>
+        <v>1.261</v>
       </c>
       <c r="H11">
-        <v>1.268</v>
+        <v>1.259</v>
       </c>
       <c r="I11">
-        <v>1.268</v>
+        <v>1.259</v>
       </c>
       <c r="J11">
-        <v>1.271</v>
+        <v>1.262</v>
       </c>
       <c r="K11">
         <v>0.005</v>
       </c>
       <c r="L11">
-        <v>1.264</v>
+        <v>1.255</v>
       </c>
       <c r="M11">
-        <v>1.28</v>
+        <v>1.271</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4580,40 +4580,40 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1.122</v>
+        <v>1.206</v>
       </c>
       <c r="C12">
-        <v>1.064</v>
+        <v>1.143</v>
       </c>
       <c r="D12">
-        <v>1.028</v>
+        <v>1.107</v>
       </c>
       <c r="E12">
-        <v>0.982</v>
+        <v>1.06</v>
       </c>
       <c r="F12">
-        <v>1.05</v>
+        <v>1.133</v>
       </c>
       <c r="G12">
-        <v>1.069</v>
+        <v>1.154</v>
       </c>
       <c r="H12">
-        <v>1.086</v>
+        <v>1.167</v>
       </c>
       <c r="I12">
-        <v>1.089</v>
+        <v>1.172</v>
       </c>
       <c r="J12">
-        <v>1.061</v>
+        <v>1.143</v>
       </c>
       <c r="K12">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="L12">
-        <v>0.982</v>
+        <v>1.06</v>
       </c>
       <c r="M12">
-        <v>1.122</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4662,40 +4662,40 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>53.119</v>
+        <v>53.045</v>
       </c>
       <c r="C14">
-        <v>53.171</v>
+        <v>53.101</v>
       </c>
       <c r="D14">
-        <v>53.203</v>
+        <v>53.132</v>
       </c>
       <c r="E14">
-        <v>53.244</v>
+        <v>53.175</v>
       </c>
       <c r="F14">
-        <v>53.183</v>
+        <v>53.11</v>
       </c>
       <c r="G14">
-        <v>53.167</v>
+        <v>53.091</v>
       </c>
       <c r="H14">
-        <v>53.152</v>
+        <v>53.08</v>
       </c>
       <c r="I14">
-        <v>53.149</v>
+        <v>53.075</v>
       </c>
       <c r="J14">
-        <v>53.174</v>
+        <v>53.101</v>
       </c>
       <c r="K14">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="L14">
-        <v>53.119</v>
+        <v>53.045</v>
       </c>
       <c r="M14">
-        <v>53.244</v>
+        <v>53.175</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5154,40 +5154,40 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>11.297</v>
+        <v>11.214</v>
       </c>
       <c r="C27">
-        <v>11.355</v>
+        <v>11.276</v>
       </c>
       <c r="D27">
-        <v>11.392</v>
+        <v>11.312</v>
       </c>
       <c r="E27">
-        <v>11.437</v>
+        <v>11.36</v>
       </c>
       <c r="F27">
-        <v>11.369</v>
+        <v>11.287</v>
       </c>
       <c r="G27">
-        <v>11.351</v>
+        <v>11.265</v>
       </c>
       <c r="H27">
-        <v>11.334</v>
+        <v>11.253</v>
       </c>
       <c r="I27">
-        <v>11.33</v>
+        <v>11.248</v>
       </c>
       <c r="J27">
-        <v>11.358</v>
+        <v>11.277</v>
       </c>
       <c r="K27">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="L27">
-        <v>11.297</v>
+        <v>11.214</v>
       </c>
       <c r="M27">
-        <v>11.437</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -5195,40 +5195,40 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>1.122</v>
+        <v>1.206</v>
       </c>
       <c r="C28">
-        <v>1.064</v>
+        <v>1.143</v>
       </c>
       <c r="D28">
-        <v>1.028</v>
+        <v>1.107</v>
       </c>
       <c r="E28">
-        <v>0.982</v>
+        <v>1.06</v>
       </c>
       <c r="F28">
-        <v>1.05</v>
+        <v>1.133</v>
       </c>
       <c r="G28">
-        <v>1.069</v>
+        <v>1.154</v>
       </c>
       <c r="H28">
-        <v>1.086</v>
+        <v>1.167</v>
       </c>
       <c r="I28">
-        <v>1.089</v>
+        <v>1.172</v>
       </c>
       <c r="J28">
-        <v>1.061</v>
+        <v>1.143</v>
       </c>
       <c r="K28">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="L28">
-        <v>0.982</v>
+        <v>1.06</v>
       </c>
       <c r="M28">
-        <v>1.122</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -5292,7 +5292,7 @@
         <v>100</v>
       </c>
       <c r="G30">
-        <v>99.999</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>99.999</v>
+        <v>100</v>
       </c>
       <c r="M30">
         <v>100</v>
@@ -5359,40 +5359,40 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>17.119</v>
+        <v>17.141</v>
       </c>
       <c r="C33">
-        <v>17.104</v>
+        <v>17.125</v>
       </c>
       <c r="D33">
-        <v>17.095</v>
+        <v>17.115</v>
       </c>
       <c r="E33">
-        <v>17.083</v>
+        <v>17.103</v>
       </c>
       <c r="F33">
-        <v>17.1</v>
+        <v>17.122</v>
       </c>
       <c r="G33">
-        <v>17.105</v>
+        <v>17.128</v>
       </c>
       <c r="H33">
-        <v>17.11</v>
+        <v>17.131</v>
       </c>
       <c r="I33">
-        <v>17.111</v>
+        <v>17.132</v>
       </c>
       <c r="J33">
+        <v>17.125</v>
+      </c>
+      <c r="K33">
+        <v>0.012</v>
+      </c>
+      <c r="L33">
         <v>17.103</v>
       </c>
-      <c r="K33">
-        <v>0.011</v>
-      </c>
-      <c r="L33">
-        <v>17.083</v>
-      </c>
       <c r="M33">
-        <v>17.119</v>
+        <v>17.141</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -5400,40 +5400,40 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>4.33</v>
+        <v>4.336</v>
       </c>
       <c r="C34">
+        <v>4.332</v>
+      </c>
+      <c r="D34">
+        <v>4.329</v>
+      </c>
+      <c r="E34">
         <v>4.326</v>
       </c>
-      <c r="D34">
-        <v>4.324</v>
-      </c>
-      <c r="E34">
-        <v>4.321</v>
-      </c>
       <c r="F34">
-        <v>4.326</v>
+        <v>4.331</v>
       </c>
       <c r="G34">
-        <v>4.327</v>
+        <v>4.332</v>
       </c>
       <c r="H34">
-        <v>4.328</v>
+        <v>4.333</v>
       </c>
       <c r="I34">
-        <v>4.328</v>
+        <v>4.334</v>
       </c>
       <c r="J34">
-        <v>4.326</v>
+        <v>4.332</v>
       </c>
       <c r="K34">
         <v>0.003</v>
       </c>
       <c r="L34">
-        <v>4.321</v>
+        <v>4.326</v>
       </c>
       <c r="M34">
-        <v>4.33</v>
+        <v>4.336</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5441,7 +5441,7 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>0.305</v>
+        <v>0.306</v>
       </c>
       <c r="C35">
         <v>0.305</v>
@@ -5462,7 +5462,7 @@
         <v>0.305</v>
       </c>
       <c r="I35">
-        <v>0.305</v>
+        <v>0.306</v>
       </c>
       <c r="J35">
         <v>0.305</v>
@@ -5474,7 +5474,7 @@
         <v>0.305</v>
       </c>
       <c r="M35">
-        <v>0.305</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5646,40 +5646,40 @@
         <v>12</v>
       </c>
       <c r="B40">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="D40">
         <v>0.8080000000000001</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>0.8080000000000001</v>
       </c>
-      <c r="D40">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="E40">
-        <v>0.8070000000000001</v>
-      </c>
       <c r="F40">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G40">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H40">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="I40">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J40">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="K40">
         <v>0.001</v>
       </c>
       <c r="L40">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="M40">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -5687,40 +5687,40 @@
         <v>13</v>
       </c>
       <c r="B41">
+        <v>2.817</v>
+      </c>
+      <c r="C41">
+        <v>2.814</v>
+      </c>
+      <c r="D41">
         <v>2.813</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>2.811</v>
       </c>
-      <c r="D41">
-        <v>2.809</v>
-      </c>
-      <c r="E41">
-        <v>2.807</v>
-      </c>
       <c r="F41">
-        <v>2.81</v>
+        <v>2.814</v>
       </c>
       <c r="G41">
-        <v>2.811</v>
+        <v>2.815</v>
       </c>
       <c r="H41">
-        <v>2.812</v>
+        <v>2.815</v>
       </c>
       <c r="I41">
-        <v>2.812</v>
+        <v>2.815</v>
       </c>
       <c r="J41">
-        <v>2.811</v>
+        <v>2.814</v>
       </c>
       <c r="K41">
         <v>0.002</v>
       </c>
       <c r="L41">
-        <v>2.807</v>
+        <v>2.811</v>
       </c>
       <c r="M41">
-        <v>2.813</v>
+        <v>2.817</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -5728,40 +5728,40 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>20.062</v>
+        <v>19.94</v>
       </c>
       <c r="C42">
-        <v>20.148</v>
+        <v>20.031</v>
       </c>
       <c r="D42">
-        <v>20.201</v>
+        <v>20.084</v>
       </c>
       <c r="E42">
-        <v>20.268</v>
+        <v>20.154</v>
       </c>
       <c r="F42">
-        <v>20.168</v>
+        <v>20.047</v>
       </c>
       <c r="G42">
-        <v>20.141</v>
+        <v>20.015</v>
       </c>
       <c r="H42">
-        <v>20.116</v>
+        <v>19.997</v>
       </c>
       <c r="I42">
-        <v>20.111</v>
+        <v>19.99</v>
       </c>
       <c r="J42">
-        <v>20.152</v>
+        <v>20.032</v>
       </c>
       <c r="K42">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
       <c r="L42">
-        <v>20.062</v>
+        <v>19.94</v>
       </c>
       <c r="M42">
-        <v>20.268</v>
+        <v>20.154</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5769,40 +5769,40 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>1.282</v>
+        <v>1.378</v>
       </c>
       <c r="C43">
-        <v>1.214</v>
+        <v>1.306</v>
       </c>
       <c r="D43">
-        <v>1.172</v>
+        <v>1.265</v>
       </c>
       <c r="E43">
-        <v>1.119</v>
+        <v>1.209</v>
       </c>
       <c r="F43">
-        <v>1.198</v>
+        <v>1.294</v>
       </c>
       <c r="G43">
-        <v>1.219</v>
+        <v>1.319</v>
       </c>
       <c r="H43">
-        <v>1.239</v>
+        <v>1.334</v>
       </c>
       <c r="I43">
-        <v>1.243</v>
+        <v>1.339</v>
       </c>
       <c r="J43">
-        <v>1.211</v>
+        <v>1.305</v>
       </c>
       <c r="K43">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="L43">
-        <v>1.119</v>
+        <v>1.209</v>
       </c>
       <c r="M43">
-        <v>1.282</v>
+        <v>1.378</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -5851,40 +5851,40 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>53.11</v>
+        <v>53.103</v>
       </c>
       <c r="C45">
-        <v>53.114</v>
+        <v>53.108</v>
       </c>
       <c r="D45">
-        <v>53.117</v>
+        <v>53.111</v>
       </c>
       <c r="E45">
-        <v>53.121</v>
+        <v>53.115</v>
       </c>
       <c r="F45">
-        <v>53.116</v>
+        <v>53.109</v>
       </c>
       <c r="G45">
-        <v>53.114</v>
+        <v>53.107</v>
       </c>
       <c r="H45">
-        <v>53.113</v>
+        <v>53.106</v>
       </c>
       <c r="I45">
-        <v>53.112</v>
+        <v>53.106</v>
       </c>
       <c r="J45">
+        <v>53.108</v>
+      </c>
+      <c r="K45">
+        <v>0.004</v>
+      </c>
+      <c r="L45">
+        <v>53.103</v>
+      </c>
+      <c r="M45">
         <v>53.115</v>
-      </c>
-      <c r="K45">
-        <v>0.003</v>
-      </c>
-      <c r="L45">
-        <v>53.11</v>
-      </c>
-      <c r="M45">
-        <v>53.121</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -6299,31 +6299,31 @@
         <v>14</v>
       </c>
       <c r="B11">
+        <v>1.47</v>
+      </c>
+      <c r="C11">
         <v>1.472</v>
       </c>
-      <c r="C11">
-        <v>1.474</v>
-      </c>
       <c r="D11">
-        <v>1.481</v>
+        <v>1.479</v>
       </c>
       <c r="E11">
-        <v>1.472</v>
+        <v>1.47</v>
       </c>
       <c r="F11">
-        <v>1.479</v>
+        <v>1.477</v>
       </c>
       <c r="G11">
         <v>1.502</v>
       </c>
       <c r="H11">
-        <v>1.48</v>
+        <v>1.478</v>
       </c>
       <c r="I11">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="J11">
-        <v>1.472</v>
+        <v>1.47</v>
       </c>
       <c r="K11">
         <v>1.502</v>
@@ -6334,34 +6334,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.272</v>
+        <v>0.293</v>
       </c>
       <c r="C12">
-        <v>0.254</v>
+        <v>0.274</v>
       </c>
       <c r="D12">
-        <v>0.193</v>
+        <v>0.208</v>
       </c>
       <c r="E12">
-        <v>0.275</v>
+        <v>0.297</v>
       </c>
       <c r="F12">
-        <v>0.215</v>
+        <v>0.232</v>
       </c>
       <c r="G12">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H12">
-        <v>0.203</v>
+        <v>0.219</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="J12">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="K12">
-        <v>0.275</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6404,34 +6404,34 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>54.256</v>
+        <v>54.238</v>
       </c>
       <c r="C14">
-        <v>54.272</v>
+        <v>54.254</v>
       </c>
       <c r="D14">
-        <v>54.327</v>
+        <v>54.313</v>
       </c>
       <c r="E14">
-        <v>54.254</v>
+        <v>54.235</v>
       </c>
       <c r="F14">
-        <v>54.307</v>
+        <v>54.292</v>
       </c>
       <c r="G14">
-        <v>54.489</v>
+        <v>54.488</v>
       </c>
       <c r="H14">
-        <v>54.318</v>
+        <v>54.303</v>
       </c>
       <c r="I14">
-        <v>0.089</v>
+        <v>0.096</v>
       </c>
       <c r="J14">
-        <v>54.254</v>
+        <v>54.235</v>
       </c>
       <c r="K14">
-        <v>54.489</v>
+        <v>54.488</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6824,34 +6824,34 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>13.158</v>
+        <v>13.136</v>
       </c>
       <c r="C27">
-        <v>13.175</v>
+        <v>13.155</v>
       </c>
       <c r="D27">
-        <v>13.237</v>
+        <v>13.222</v>
       </c>
       <c r="E27">
-        <v>13.154</v>
+        <v>13.133</v>
       </c>
       <c r="F27">
-        <v>13.215</v>
+        <v>13.198</v>
       </c>
       <c r="G27">
-        <v>13.42</v>
+        <v>13.419</v>
       </c>
       <c r="H27">
-        <v>13.226</v>
+        <v>13.211</v>
       </c>
       <c r="I27">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="J27">
-        <v>13.154</v>
+        <v>13.133</v>
       </c>
       <c r="K27">
-        <v>13.42</v>
+        <v>13.419</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6859,34 +6859,34 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.272</v>
+        <v>0.293</v>
       </c>
       <c r="C28">
-        <v>0.254</v>
+        <v>0.274</v>
       </c>
       <c r="D28">
-        <v>0.193</v>
+        <v>0.208</v>
       </c>
       <c r="E28">
-        <v>0.275</v>
+        <v>0.297</v>
       </c>
       <c r="F28">
-        <v>0.215</v>
+        <v>0.232</v>
       </c>
       <c r="G28">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H28">
-        <v>0.203</v>
+        <v>0.219</v>
       </c>
       <c r="I28">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="J28">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="K28">
-        <v>0.275</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6999,34 +6999,34 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>16.358</v>
+        <v>16.363</v>
       </c>
       <c r="C33">
-        <v>16.354</v>
+        <v>16.359</v>
       </c>
       <c r="D33">
-        <v>16.339</v>
+        <v>16.343</v>
       </c>
       <c r="E33">
-        <v>16.359</v>
+        <v>16.364</v>
       </c>
       <c r="F33">
-        <v>16.344</v>
+        <v>16.348</v>
       </c>
       <c r="G33">
         <v>16.295</v>
       </c>
       <c r="H33">
-        <v>16.341</v>
+        <v>16.345</v>
       </c>
       <c r="I33">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="J33">
         <v>16.295</v>
       </c>
       <c r="K33">
-        <v>16.359</v>
+        <v>16.364</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -7034,34 +7034,34 @@
         <v>6</v>
       </c>
       <c r="B34">
+        <v>4.192</v>
+      </c>
+      <c r="C34">
         <v>4.19</v>
       </c>
-      <c r="C34">
-        <v>4.189</v>
-      </c>
       <c r="D34">
-        <v>4.185</v>
+        <v>4.186</v>
       </c>
       <c r="E34">
-        <v>4.19</v>
+        <v>4.192</v>
       </c>
       <c r="F34">
-        <v>4.187</v>
+        <v>4.188</v>
       </c>
       <c r="G34">
         <v>4.174</v>
       </c>
       <c r="H34">
-        <v>4.186</v>
+        <v>4.187</v>
       </c>
       <c r="I34">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="J34">
         <v>4.174</v>
       </c>
       <c r="K34">
-        <v>4.19</v>
+        <v>4.192</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -7247,7 +7247,7 @@
         <v>0.787</v>
       </c>
       <c r="C40">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="D40">
         <v>0.786</v>
@@ -7279,19 +7279,19 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>2.701</v>
+        <v>2.702</v>
       </c>
       <c r="C41">
-        <v>2.701</v>
+        <v>2.702</v>
       </c>
       <c r="D41">
-        <v>2.698</v>
+        <v>2.699</v>
       </c>
       <c r="E41">
         <v>2.702</v>
       </c>
       <c r="F41">
-        <v>2.699</v>
+        <v>2.7</v>
       </c>
       <c r="G41">
         <v>2.691</v>
@@ -7314,34 +7314,34 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>22.644</v>
+        <v>22.614</v>
       </c>
       <c r="C42">
-        <v>22.668</v>
+        <v>22.64</v>
       </c>
       <c r="D42">
-        <v>22.754</v>
+        <v>22.733</v>
       </c>
       <c r="E42">
-        <v>22.64</v>
+        <v>22.61</v>
       </c>
       <c r="F42">
-        <v>22.723</v>
+        <v>22.7</v>
       </c>
       <c r="G42">
-        <v>23.006</v>
+        <v>23.005</v>
       </c>
       <c r="H42">
-        <v>22.739</v>
+        <v>22.717</v>
       </c>
       <c r="I42">
-        <v>0.138</v>
+        <v>0.149</v>
       </c>
       <c r="J42">
-        <v>22.64</v>
+        <v>22.61</v>
       </c>
       <c r="K42">
-        <v>23.006</v>
+        <v>23.005</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -7349,34 +7349,34 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>0.301</v>
+        <v>0.324</v>
       </c>
       <c r="C43">
-        <v>0.282</v>
+        <v>0.304</v>
       </c>
       <c r="D43">
-        <v>0.213</v>
+        <v>0.23</v>
       </c>
       <c r="E43">
-        <v>0.304</v>
+        <v>0.328</v>
       </c>
       <c r="F43">
-        <v>0.238</v>
+        <v>0.256</v>
       </c>
       <c r="G43">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="H43">
-        <v>0.225</v>
+        <v>0.242</v>
       </c>
       <c r="I43">
-        <v>0.111</v>
+        <v>0.119</v>
       </c>
       <c r="J43">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="K43">
-        <v>0.304</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -7419,31 +7419,31 @@
         <v>17</v>
       </c>
       <c r="B45">
+        <v>52.569</v>
+      </c>
+      <c r="C45">
         <v>52.57</v>
       </c>
-      <c r="C45">
-        <v>52.572</v>
-      </c>
       <c r="D45">
-        <v>52.577</v>
+        <v>52.576</v>
       </c>
       <c r="E45">
-        <v>52.57</v>
+        <v>52.568</v>
       </c>
       <c r="F45">
-        <v>52.575</v>
+        <v>52.574</v>
       </c>
       <c r="G45">
         <v>52.593</v>
       </c>
       <c r="H45">
-        <v>52.576</v>
+        <v>52.575</v>
       </c>
       <c r="I45">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J45">
-        <v>52.57</v>
+        <v>52.568</v>
       </c>
       <c r="K45">
         <v>52.593</v>
@@ -7855,34 +7855,34 @@
         <v>14</v>
       </c>
       <c r="B11">
+        <v>1.429</v>
+      </c>
+      <c r="C11">
+        <v>1.427</v>
+      </c>
+      <c r="D11">
+        <v>1.436</v>
+      </c>
+      <c r="E11">
+        <v>1.426</v>
+      </c>
+      <c r="F11">
+        <v>1.436</v>
+      </c>
+      <c r="G11">
+        <v>1.458</v>
+      </c>
+      <c r="H11">
         <v>1.435</v>
       </c>
-      <c r="C11">
-        <v>1.432</v>
-      </c>
-      <c r="D11">
-        <v>1.441</v>
-      </c>
-      <c r="E11">
-        <v>1.432</v>
-      </c>
-      <c r="F11">
-        <v>1.441</v>
-      </c>
-      <c r="G11">
-        <v>1.462</v>
-      </c>
-      <c r="H11">
-        <v>1.441</v>
-      </c>
       <c r="I11">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="J11">
-        <v>1.432</v>
+        <v>1.426</v>
       </c>
       <c r="K11">
-        <v>1.462</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7890,34 +7890,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.608</v>
+        <v>0.655</v>
       </c>
       <c r="C12">
-        <v>0.63</v>
+        <v>0.679</v>
       </c>
       <c r="D12">
-        <v>0.552</v>
+        <v>0.598</v>
       </c>
       <c r="E12">
-        <v>0.63</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F12">
-        <v>0.549</v>
+        <v>0.593</v>
       </c>
       <c r="G12">
-        <v>0.367</v>
+        <v>0.402</v>
       </c>
       <c r="H12">
-        <v>0.556</v>
+        <v>0.602</v>
       </c>
       <c r="I12">
-        <v>0.099</v>
+        <v>0.105</v>
       </c>
       <c r="J12">
-        <v>0.367</v>
+        <v>0.402</v>
       </c>
       <c r="K12">
-        <v>0.63</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7960,34 +7960,34 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>53.958</v>
+        <v>53.916</v>
       </c>
       <c r="C14">
-        <v>53.939</v>
+        <v>53.895</v>
       </c>
       <c r="D14">
-        <v>54.008</v>
+        <v>53.967</v>
       </c>
       <c r="E14">
-        <v>53.938</v>
+        <v>53.892</v>
       </c>
       <c r="F14">
-        <v>54.01</v>
+        <v>53.972</v>
       </c>
       <c r="G14">
-        <v>54.172</v>
+        <v>54.14</v>
       </c>
       <c r="H14">
-        <v>54.004</v>
+        <v>53.964</v>
       </c>
       <c r="I14">
-        <v>0.08799999999999999</v>
+        <v>0.093</v>
       </c>
       <c r="J14">
-        <v>53.938</v>
+        <v>53.892</v>
       </c>
       <c r="K14">
-        <v>54.172</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8380,34 +8380,34 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>12.821</v>
+        <v>12.774</v>
       </c>
       <c r="C27">
-        <v>12.8</v>
+        <v>12.751</v>
       </c>
       <c r="D27">
-        <v>12.878</v>
+        <v>12.832</v>
       </c>
       <c r="E27">
-        <v>12.799</v>
+        <v>12.747</v>
       </c>
       <c r="F27">
-        <v>12.881</v>
+        <v>12.837</v>
       </c>
       <c r="G27">
-        <v>13.062</v>
+        <v>13.027</v>
       </c>
       <c r="H27">
-        <v>12.873</v>
+        <v>12.828</v>
       </c>
       <c r="I27">
-        <v>0.099</v>
+        <v>0.105</v>
       </c>
       <c r="J27">
-        <v>12.799</v>
+        <v>12.747</v>
       </c>
       <c r="K27">
-        <v>13.062</v>
+        <v>13.027</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8415,34 +8415,34 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.608</v>
+        <v>0.655</v>
       </c>
       <c r="C28">
-        <v>0.63</v>
+        <v>0.679</v>
       </c>
       <c r="D28">
-        <v>0.552</v>
+        <v>0.598</v>
       </c>
       <c r="E28">
-        <v>0.63</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F28">
-        <v>0.549</v>
+        <v>0.593</v>
       </c>
       <c r="G28">
-        <v>0.367</v>
+        <v>0.402</v>
       </c>
       <c r="H28">
-        <v>0.556</v>
+        <v>0.602</v>
       </c>
       <c r="I28">
-        <v>0.099</v>
+        <v>0.105</v>
       </c>
       <c r="J28">
-        <v>0.367</v>
+        <v>0.402</v>
       </c>
       <c r="K28">
-        <v>0.63</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8555,34 +8555,34 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>16.44</v>
+        <v>16.451</v>
       </c>
       <c r="C33">
-        <v>16.445</v>
+        <v>16.457</v>
       </c>
       <c r="D33">
-        <v>16.426</v>
+        <v>16.437</v>
       </c>
       <c r="E33">
-        <v>16.445</v>
+        <v>16.458</v>
       </c>
       <c r="F33">
-        <v>16.425</v>
+        <v>16.436</v>
       </c>
       <c r="G33">
-        <v>16.381</v>
+        <v>16.39</v>
       </c>
       <c r="H33">
-        <v>16.427</v>
+        <v>16.438</v>
       </c>
       <c r="I33">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="J33">
-        <v>16.381</v>
+        <v>16.39</v>
       </c>
       <c r="K33">
-        <v>16.445</v>
+        <v>16.458</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8590,34 +8590,34 @@
         <v>6</v>
       </c>
       <c r="B34">
+        <v>4.214</v>
+      </c>
+      <c r="C34">
+        <v>4.216</v>
+      </c>
+      <c r="D34">
         <v>4.211</v>
       </c>
-      <c r="C34">
-        <v>4.212</v>
-      </c>
-      <c r="D34">
-        <v>4.208</v>
-      </c>
       <c r="E34">
-        <v>4.213</v>
+        <v>4.216</v>
       </c>
       <c r="F34">
-        <v>4.208</v>
+        <v>4.21</v>
       </c>
       <c r="G34">
-        <v>4.196</v>
+        <v>4.198</v>
       </c>
       <c r="H34">
-        <v>4.208</v>
+        <v>4.211</v>
       </c>
       <c r="I34">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="J34">
-        <v>4.196</v>
+        <v>4.198</v>
       </c>
       <c r="K34">
-        <v>4.213</v>
+        <v>4.216</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8640,7 +8640,7 @@
         <v>0.294</v>
       </c>
       <c r="G35">
-        <v>0.293</v>
+        <v>0.294</v>
       </c>
       <c r="H35">
         <v>0.294</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.293</v>
+        <v>0.294</v>
       </c>
       <c r="K35">
         <v>0.295</v>
@@ -8660,16 +8660,16 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="C36">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="D36">
         <v>0.1</v>
       </c>
       <c r="E36">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="F36">
         <v>0.1</v>
@@ -8687,7 +8687,7 @@
         <v>0.1</v>
       </c>
       <c r="K36">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8835,34 +8835,34 @@
         <v>13</v>
       </c>
       <c r="B41">
+        <v>2.717</v>
+      </c>
+      <c r="C41">
+        <v>2.718</v>
+      </c>
+      <c r="D41">
+        <v>2.714</v>
+      </c>
+      <c r="E41">
+        <v>2.718</v>
+      </c>
+      <c r="F41">
+        <v>2.714</v>
+      </c>
+      <c r="G41">
+        <v>2.707</v>
+      </c>
+      <c r="H41">
         <v>2.715</v>
-      </c>
-      <c r="C41">
-        <v>2.716</v>
-      </c>
-      <c r="D41">
-        <v>2.713</v>
-      </c>
-      <c r="E41">
-        <v>2.716</v>
-      </c>
-      <c r="F41">
-        <v>2.712</v>
-      </c>
-      <c r="G41">
-        <v>2.705</v>
-      </c>
-      <c r="H41">
-        <v>2.713</v>
       </c>
       <c r="I41">
         <v>0.004</v>
       </c>
       <c r="J41">
-        <v>2.705</v>
+        <v>2.707</v>
       </c>
       <c r="K41">
-        <v>2.716</v>
+        <v>2.718</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8870,34 +8870,34 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>22.175</v>
+        <v>22.109</v>
       </c>
       <c r="C42">
-        <v>22.145</v>
+        <v>22.076</v>
       </c>
       <c r="D42">
-        <v>22.254</v>
+        <v>22.19</v>
       </c>
       <c r="E42">
-        <v>22.144</v>
+        <v>22.071</v>
       </c>
       <c r="F42">
-        <v>22.258</v>
+        <v>22.197</v>
       </c>
       <c r="G42">
-        <v>22.512</v>
+        <v>22.462</v>
       </c>
       <c r="H42">
-        <v>22.248</v>
+        <v>22.184</v>
       </c>
       <c r="I42">
-        <v>0.139</v>
+        <v>0.147</v>
       </c>
       <c r="J42">
-        <v>22.144</v>
+        <v>22.071</v>
       </c>
       <c r="K42">
-        <v>22.512</v>
+        <v>22.462</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8905,34 +8905,34 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>0.677</v>
+        <v>0.729</v>
       </c>
       <c r="C43">
-        <v>0.701</v>
+        <v>0.756</v>
       </c>
       <c r="D43">
-        <v>0.613</v>
+        <v>0.665</v>
       </c>
       <c r="E43">
-        <v>0.701</v>
+        <v>0.76</v>
       </c>
       <c r="F43">
-        <v>0.61</v>
+        <v>0.659</v>
       </c>
       <c r="G43">
-        <v>0.407</v>
+        <v>0.446</v>
       </c>
       <c r="H43">
-        <v>0.618</v>
+        <v>0.669</v>
       </c>
       <c r="I43">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="J43">
-        <v>0.407</v>
+        <v>0.446</v>
       </c>
       <c r="K43">
-        <v>0.701</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8975,34 +8975,34 @@
         <v>17</v>
       </c>
       <c r="B45">
+        <v>52.538</v>
+      </c>
+      <c r="C45">
+        <v>52.536</v>
+      </c>
+      <c r="D45">
+        <v>52.543</v>
+      </c>
+      <c r="E45">
+        <v>52.535</v>
+      </c>
+      <c r="F45">
+        <v>52.543</v>
+      </c>
+      <c r="G45">
+        <v>52.559</v>
+      </c>
+      <c r="H45">
         <v>52.542</v>
-      </c>
-      <c r="C45">
-        <v>52.54</v>
-      </c>
-      <c r="D45">
-        <v>52.546</v>
-      </c>
-      <c r="E45">
-        <v>52.54</v>
-      </c>
-      <c r="F45">
-        <v>52.547</v>
-      </c>
-      <c r="G45">
-        <v>52.562</v>
-      </c>
-      <c r="H45">
-        <v>52.546</v>
       </c>
       <c r="I45">
         <v>0.008999999999999999</v>
       </c>
       <c r="J45">
-        <v>52.54</v>
+        <v>52.535</v>
       </c>
       <c r="K45">
-        <v>52.562</v>
+        <v>52.559</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9411,34 +9411,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1.421</v>
+        <v>1.414</v>
       </c>
       <c r="C11">
-        <v>1.418</v>
+        <v>1.411</v>
       </c>
       <c r="D11">
-        <v>1.428</v>
+        <v>1.422</v>
       </c>
       <c r="E11">
-        <v>1.418</v>
+        <v>1.411</v>
       </c>
       <c r="F11">
-        <v>1.429</v>
+        <v>1.423</v>
       </c>
       <c r="G11">
-        <v>1.453</v>
+        <v>1.448</v>
       </c>
       <c r="H11">
-        <v>1.428</v>
+        <v>1.422</v>
       </c>
       <c r="I11">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="J11">
-        <v>1.418</v>
+        <v>1.411</v>
       </c>
       <c r="K11">
-        <v>1.453</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9446,34 +9446,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.733</v>
+        <v>0.789</v>
       </c>
       <c r="C12">
-        <v>0.759</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D12">
-        <v>0.665</v>
+        <v>0.72</v>
       </c>
       <c r="E12">
-        <v>0.759</v>
+        <v>0.822</v>
       </c>
       <c r="F12">
-        <v>0.661</v>
+        <v>0.714</v>
       </c>
       <c r="G12">
-        <v>0.442</v>
+        <v>0.485</v>
       </c>
       <c r="H12">
-        <v>0.67</v>
+        <v>0.725</v>
       </c>
       <c r="I12">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="J12">
-        <v>0.442</v>
+        <v>0.485</v>
       </c>
       <c r="K12">
-        <v>0.759</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9516,34 +9516,34 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>53.847</v>
+        <v>53.797</v>
       </c>
       <c r="C14">
-        <v>53.824</v>
+        <v>53.772</v>
       </c>
       <c r="D14">
-        <v>53.908</v>
+        <v>53.858</v>
       </c>
       <c r="E14">
-        <v>53.824</v>
+        <v>53.768</v>
       </c>
       <c r="F14">
-        <v>53.911</v>
+        <v>53.864</v>
       </c>
       <c r="G14">
-        <v>54.105</v>
+        <v>54.067</v>
       </c>
       <c r="H14">
-        <v>53.903</v>
+        <v>53.854</v>
       </c>
       <c r="I14">
-        <v>0.106</v>
+        <v>0.112</v>
       </c>
       <c r="J14">
-        <v>53.824</v>
+        <v>53.768</v>
       </c>
       <c r="K14">
-        <v>54.105</v>
+        <v>54.067</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9936,34 +9936,34 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>12.696</v>
+        <v>12.64</v>
       </c>
       <c r="C27">
-        <v>12.671</v>
+        <v>12.612</v>
       </c>
       <c r="D27">
-        <v>12.765</v>
+        <v>12.709</v>
       </c>
       <c r="E27">
-        <v>12.67</v>
+        <v>12.608</v>
       </c>
       <c r="F27">
-        <v>12.768</v>
+        <v>12.715</v>
       </c>
       <c r="G27">
-        <v>12.987</v>
+        <v>12.945</v>
       </c>
       <c r="H27">
-        <v>12.76</v>
+        <v>12.705</v>
       </c>
       <c r="I27">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="J27">
-        <v>12.67</v>
+        <v>12.608</v>
       </c>
       <c r="K27">
-        <v>12.987</v>
+        <v>12.945</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -9971,34 +9971,34 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.733</v>
+        <v>0.789</v>
       </c>
       <c r="C28">
-        <v>0.759</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D28">
-        <v>0.665</v>
+        <v>0.72</v>
       </c>
       <c r="E28">
-        <v>0.759</v>
+        <v>0.822</v>
       </c>
       <c r="F28">
-        <v>0.661</v>
+        <v>0.714</v>
       </c>
       <c r="G28">
-        <v>0.442</v>
+        <v>0.485</v>
       </c>
       <c r="H28">
-        <v>0.67</v>
+        <v>0.725</v>
       </c>
       <c r="I28">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="J28">
-        <v>0.442</v>
+        <v>0.485</v>
       </c>
       <c r="K28">
-        <v>0.759</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -10111,34 +10111,34 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>16.47</v>
+        <v>16.484</v>
       </c>
       <c r="C33">
-        <v>16.476</v>
+        <v>16.491</v>
       </c>
       <c r="D33">
-        <v>16.453</v>
+        <v>16.467</v>
       </c>
       <c r="E33">
-        <v>16.476</v>
+        <v>16.492</v>
       </c>
       <c r="F33">
-        <v>16.452</v>
+        <v>16.465</v>
       </c>
       <c r="G33">
-        <v>16.399</v>
+        <v>16.409</v>
       </c>
       <c r="H33">
-        <v>16.455</v>
+        <v>16.468</v>
       </c>
       <c r="I33">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="J33">
-        <v>16.399</v>
+        <v>16.409</v>
       </c>
       <c r="K33">
-        <v>16.476</v>
+        <v>16.492</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -10146,34 +10146,34 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>4.219</v>
+        <v>4.222</v>
       </c>
       <c r="C34">
-        <v>4.221</v>
+        <v>4.224</v>
       </c>
       <c r="D34">
-        <v>4.215</v>
+        <v>4.218</v>
       </c>
       <c r="E34">
-        <v>4.221</v>
+        <v>4.225</v>
       </c>
       <c r="F34">
-        <v>4.214</v>
+        <v>4.218</v>
       </c>
       <c r="G34">
-        <v>4.201</v>
+        <v>4.204</v>
       </c>
       <c r="H34">
-        <v>4.215</v>
+        <v>4.218</v>
       </c>
       <c r="I34">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="J34">
-        <v>4.201</v>
+        <v>4.204</v>
       </c>
       <c r="K34">
-        <v>4.221</v>
+        <v>4.225</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -10202,7 +10202,7 @@
         <v>0.295</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="J35">
         <v>0.294</v>
@@ -10356,25 +10356,25 @@
         <v>12</v>
       </c>
       <c r="B40">
+        <v>0.793</v>
+      </c>
+      <c r="C40">
+        <v>0.793</v>
+      </c>
+      <c r="D40">
         <v>0.792</v>
       </c>
-      <c r="C40">
+      <c r="E40">
+        <v>0.793</v>
+      </c>
+      <c r="F40">
         <v>0.792</v>
-      </c>
-      <c r="D40">
-        <v>0.791</v>
-      </c>
-      <c r="E40">
-        <v>0.792</v>
-      </c>
-      <c r="F40">
-        <v>0.791</v>
       </c>
       <c r="G40">
         <v>0.789</v>
       </c>
       <c r="H40">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="I40">
         <v>0.001</v>
@@ -10383,7 +10383,7 @@
         <v>0.789</v>
       </c>
       <c r="K40">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -10391,34 +10391,34 @@
         <v>13</v>
       </c>
       <c r="B41">
+        <v>2.722</v>
+      </c>
+      <c r="C41">
+        <v>2.723</v>
+      </c>
+      <c r="D41">
+        <v>2.719</v>
+      </c>
+      <c r="E41">
+        <v>2.724</v>
+      </c>
+      <c r="F41">
+        <v>2.719</v>
+      </c>
+      <c r="G41">
+        <v>2.71</v>
+      </c>
+      <c r="H41">
         <v>2.72</v>
-      </c>
-      <c r="C41">
-        <v>2.721</v>
-      </c>
-      <c r="D41">
-        <v>2.717</v>
-      </c>
-      <c r="E41">
-        <v>2.721</v>
-      </c>
-      <c r="F41">
-        <v>2.717</v>
-      </c>
-      <c r="G41">
-        <v>2.708</v>
-      </c>
-      <c r="H41">
-        <v>2.717</v>
       </c>
       <c r="I41">
         <v>0.005</v>
       </c>
       <c r="J41">
-        <v>2.708</v>
+        <v>2.71</v>
       </c>
       <c r="K41">
-        <v>2.721</v>
+        <v>2.724</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -10426,34 +10426,34 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>21.92</v>
       </c>
       <c r="C42">
-        <v>21.964</v>
+        <v>21.881</v>
       </c>
       <c r="D42">
-        <v>22.096</v>
+        <v>22.018</v>
       </c>
       <c r="E42">
-        <v>21.963</v>
+        <v>21.875</v>
       </c>
       <c r="F42">
-        <v>22.101</v>
+        <v>22.026</v>
       </c>
       <c r="G42">
-        <v>22.407</v>
+        <v>22.348</v>
       </c>
       <c r="H42">
-        <v>22.088</v>
+        <v>22.011</v>
       </c>
       <c r="I42">
-        <v>0.168</v>
+        <v>0.177</v>
       </c>
       <c r="J42">
-        <v>21.963</v>
+        <v>21.875</v>
       </c>
       <c r="K42">
-        <v>22.407</v>
+        <v>22.348</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -10461,34 +10461,34 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>0.8169999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="C43">
-        <v>0.846</v>
+        <v>0.912</v>
       </c>
       <c r="D43">
-        <v>0.74</v>
+        <v>0.802</v>
       </c>
       <c r="E43">
-        <v>0.846</v>
+        <v>0.917</v>
       </c>
       <c r="F43">
-        <v>0.736</v>
+        <v>0.796</v>
       </c>
       <c r="G43">
-        <v>0.491</v>
+        <v>0.538</v>
       </c>
       <c r="H43">
-        <v>0.746</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I43">
-        <v>0.134</v>
+        <v>0.142</v>
       </c>
       <c r="J43">
-        <v>0.491</v>
+        <v>0.538</v>
       </c>
       <c r="K43">
-        <v>0.846</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -10531,34 +10531,34 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>52.531</v>
+        <v>52.526</v>
       </c>
       <c r="C45">
-        <v>52.529</v>
+        <v>52.524</v>
       </c>
       <c r="D45">
-        <v>52.537</v>
+        <v>52.532</v>
       </c>
       <c r="E45">
-        <v>52.528</v>
+        <v>52.523</v>
       </c>
       <c r="F45">
-        <v>52.537</v>
+        <v>52.532</v>
       </c>
       <c r="G45">
-        <v>52.556</v>
+        <v>52.552</v>
       </c>
       <c r="H45">
-        <v>52.536</v>
+        <v>52.532</v>
       </c>
       <c r="I45">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="J45">
-        <v>52.528</v>
+        <v>52.523</v>
       </c>
       <c r="K45">
-        <v>52.556</v>
+        <v>52.552</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -10967,34 +10967,34 @@
         <v>14</v>
       </c>
       <c r="B11">
+        <v>0.875</v>
+      </c>
+      <c r="C11">
         <v>0.88</v>
       </c>
-      <c r="C11">
-        <v>0.885</v>
-      </c>
       <c r="D11">
-        <v>0.882</v>
+        <v>0.877</v>
       </c>
       <c r="E11">
-        <v>0.878</v>
+        <v>0.873</v>
       </c>
       <c r="F11">
-        <v>0.879</v>
+        <v>0.874</v>
       </c>
       <c r="G11">
-        <v>0.876</v>
+        <v>0.871</v>
       </c>
       <c r="H11">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="I11">
         <v>0.003</v>
       </c>
       <c r="J11">
-        <v>0.876</v>
+        <v>0.871</v>
       </c>
       <c r="K11">
-        <v>0.885</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -11002,34 +11002,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.602</v>
+        <v>0.647</v>
       </c>
       <c r="C12">
-        <v>0.5610000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="D12">
-        <v>0.585</v>
+        <v>0.629</v>
       </c>
       <c r="E12">
-        <v>0.623</v>
+        <v>0.67</v>
       </c>
       <c r="F12">
-        <v>0.61</v>
+        <v>0.656</v>
       </c>
       <c r="G12">
-        <v>0.639</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12">
-        <v>0.603</v>
+        <v>0.649</v>
       </c>
       <c r="I12">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="J12">
-        <v>0.5610000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="K12">
-        <v>0.639</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -11072,34 +11072,34 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>52.038</v>
+        <v>51.997</v>
       </c>
       <c r="C14">
-        <v>52.074</v>
+        <v>52.036</v>
       </c>
       <c r="D14">
-        <v>52.053</v>
+        <v>52.013</v>
       </c>
       <c r="E14">
-        <v>52.019</v>
+        <v>51.977</v>
       </c>
       <c r="F14">
-        <v>52.031</v>
+        <v>51.989</v>
       </c>
       <c r="G14">
-        <v>52.005</v>
+        <v>51.962</v>
       </c>
       <c r="H14">
-        <v>52.037</v>
+        <v>51.996</v>
       </c>
       <c r="I14">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="J14">
-        <v>52.005</v>
+        <v>51.962</v>
       </c>
       <c r="K14">
-        <v>52.074</v>
+        <v>52.036</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -11492,34 +11492,34 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.868</v>
+        <v>7.822</v>
       </c>
       <c r="C27">
-        <v>7.908</v>
+        <v>7.865</v>
       </c>
       <c r="D27">
-        <v>7.885</v>
+        <v>7.84</v>
       </c>
       <c r="E27">
-        <v>7.847</v>
+        <v>7.799</v>
       </c>
       <c r="F27">
-        <v>7.86</v>
+        <v>7.813</v>
       </c>
       <c r="G27">
-        <v>7.83</v>
+        <v>7.782</v>
       </c>
       <c r="H27">
-        <v>7.866</v>
+        <v>7.82</v>
       </c>
       <c r="I27">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="J27">
-        <v>7.83</v>
+        <v>7.782</v>
       </c>
       <c r="K27">
-        <v>7.908</v>
+        <v>7.865</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -11527,34 +11527,34 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.602</v>
+        <v>0.647</v>
       </c>
       <c r="C28">
-        <v>0.5610000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="D28">
-        <v>0.585</v>
+        <v>0.629</v>
       </c>
       <c r="E28">
-        <v>0.623</v>
+        <v>0.67</v>
       </c>
       <c r="F28">
-        <v>0.61</v>
+        <v>0.656</v>
       </c>
       <c r="G28">
-        <v>0.639</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H28">
-        <v>0.603</v>
+        <v>0.649</v>
       </c>
       <c r="I28">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="J28">
-        <v>0.5610000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="K28">
-        <v>0.639</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -11667,34 +11667,34 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>19.352</v>
+        <v>19.367</v>
       </c>
       <c r="C33">
-        <v>19.34</v>
+        <v>19.353</v>
       </c>
       <c r="D33">
-        <v>19.347</v>
+        <v>19.361</v>
       </c>
       <c r="E33">
-        <v>19.359</v>
+        <v>19.374</v>
       </c>
       <c r="F33">
-        <v>19.355</v>
+        <v>19.37</v>
       </c>
       <c r="G33">
-        <v>19.364</v>
+        <v>19.379</v>
       </c>
       <c r="H33">
-        <v>19.353</v>
+        <v>19.367</v>
       </c>
       <c r="I33">
         <v>0.008999999999999999</v>
       </c>
       <c r="J33">
-        <v>19.34</v>
+        <v>19.353</v>
       </c>
       <c r="K33">
-        <v>19.364</v>
+        <v>19.379</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -11702,34 +11702,34 @@
         <v>6</v>
       </c>
       <c r="B34">
+        <v>4.565</v>
+      </c>
+      <c r="C34">
         <v>4.562</v>
       </c>
-      <c r="C34">
-        <v>4.559</v>
-      </c>
       <c r="D34">
-        <v>4.56</v>
+        <v>4.564</v>
       </c>
       <c r="E34">
-        <v>4.563</v>
+        <v>4.567</v>
       </c>
       <c r="F34">
-        <v>4.562</v>
+        <v>4.566</v>
       </c>
       <c r="G34">
-        <v>4.564</v>
+        <v>4.568</v>
       </c>
       <c r="H34">
-        <v>4.562</v>
+        <v>4.565</v>
       </c>
       <c r="I34">
         <v>0.002</v>
       </c>
       <c r="J34">
-        <v>4.559</v>
+        <v>4.562</v>
       </c>
       <c r="K34">
-        <v>4.564</v>
+        <v>4.568</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -11915,19 +11915,19 @@
         <v>0.873</v>
       </c>
       <c r="C40">
-        <v>0.872</v>
+        <v>0.873</v>
       </c>
       <c r="D40">
-        <v>0.872</v>
+        <v>0.873</v>
       </c>
       <c r="E40">
-        <v>0.873</v>
+        <v>0.874</v>
       </c>
       <c r="F40">
         <v>0.873</v>
       </c>
       <c r="G40">
-        <v>0.873</v>
+        <v>0.874</v>
       </c>
       <c r="H40">
         <v>0.873</v>
@@ -11936,10 +11936,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.872</v>
+        <v>0.873</v>
       </c>
       <c r="K40">
-        <v>0.873</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -11947,34 +11947,34 @@
         <v>13</v>
       </c>
       <c r="B41">
+        <v>3.318</v>
+      </c>
+      <c r="C41">
         <v>3.316</v>
       </c>
-      <c r="C41">
-        <v>3.313</v>
-      </c>
       <c r="D41">
-        <v>3.315</v>
+        <v>3.317</v>
       </c>
       <c r="E41">
-        <v>3.317</v>
+        <v>3.319</v>
       </c>
       <c r="F41">
+        <v>3.319</v>
+      </c>
+      <c r="G41">
+        <v>3.32</v>
+      </c>
+      <c r="H41">
+        <v>3.318</v>
+      </c>
+      <c r="I41">
+        <v>0.002</v>
+      </c>
+      <c r="J41">
         <v>3.316</v>
       </c>
-      <c r="G41">
-        <v>3.318</v>
-      </c>
-      <c r="H41">
-        <v>3.316</v>
-      </c>
-      <c r="I41">
-        <v>0.001</v>
-      </c>
-      <c r="J41">
-        <v>3.313</v>
-      </c>
       <c r="K41">
-        <v>3.318</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -11982,34 +11982,34 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>14.957</v>
+        <v>14.881</v>
       </c>
       <c r="C42">
-        <v>15.024</v>
+        <v>14.953</v>
       </c>
       <c r="D42">
-        <v>14.985</v>
+        <v>14.911</v>
       </c>
       <c r="E42">
-        <v>14.922</v>
+        <v>14.843</v>
       </c>
       <c r="F42">
-        <v>14.944</v>
+        <v>14.866</v>
       </c>
       <c r="G42">
-        <v>14.895</v>
+        <v>14.814</v>
       </c>
       <c r="H42">
-        <v>14.955</v>
+        <v>14.878</v>
       </c>
       <c r="I42">
-        <v>0.046</v>
+        <v>0.049</v>
       </c>
       <c r="J42">
-        <v>14.895</v>
+        <v>14.814</v>
       </c>
       <c r="K42">
-        <v>15.024</v>
+        <v>14.953</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -12017,34 +12017,34 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>0.735</v>
+        <v>0.792</v>
       </c>
       <c r="C43">
-        <v>0.6860000000000001</v>
+        <v>0.738</v>
       </c>
       <c r="D43">
-        <v>0.715</v>
+        <v>0.77</v>
       </c>
       <c r="E43">
-        <v>0.761</v>
+        <v>0.82</v>
       </c>
       <c r="F43">
-        <v>0.746</v>
+        <v>0.803</v>
       </c>
       <c r="G43">
-        <v>0.782</v>
+        <v>0.842</v>
       </c>
       <c r="H43">
-        <v>0.737</v>
+        <v>0.794</v>
       </c>
       <c r="I43">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="J43">
-        <v>0.6860000000000001</v>
+        <v>0.738</v>
       </c>
       <c r="K43">
-        <v>0.782</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -12087,34 +12087,34 @@
         <v>17</v>
       </c>
       <c r="B45">
+        <v>55.695</v>
+      </c>
+      <c r="C45">
         <v>55.697</v>
       </c>
-      <c r="C45">
-        <v>55.699</v>
-      </c>
       <c r="D45">
-        <v>55.698</v>
+        <v>55.696</v>
       </c>
       <c r="E45">
-        <v>55.696</v>
+        <v>55.694</v>
       </c>
       <c r="F45">
-        <v>55.697</v>
+        <v>55.695</v>
       </c>
       <c r="G45">
+        <v>55.693</v>
+      </c>
+      <c r="H45">
         <v>55.695</v>
-      </c>
-      <c r="H45">
-        <v>55.697</v>
       </c>
       <c r="I45">
         <v>0.001</v>
       </c>
       <c r="J45">
-        <v>55.695</v>
+        <v>55.693</v>
       </c>
       <c r="K45">
-        <v>55.699</v>
+        <v>55.697</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -12523,34 +12523,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.839</v>
+        <v>0.83</v>
       </c>
       <c r="C11">
-        <v>0.842</v>
+        <v>0.833</v>
       </c>
       <c r="D11">
-        <v>0.84</v>
+        <v>0.832</v>
       </c>
       <c r="E11">
-        <v>0.838</v>
+        <v>0.829</v>
       </c>
       <c r="F11">
-        <v>0.839</v>
+        <v>0.83</v>
       </c>
       <c r="G11">
-        <v>0.834</v>
+        <v>0.826</v>
       </c>
       <c r="H11">
-        <v>0.839</v>
+        <v>0.83</v>
       </c>
       <c r="I11">
         <v>0.003</v>
       </c>
       <c r="J11">
-        <v>0.834</v>
+        <v>0.826</v>
       </c>
       <c r="K11">
-        <v>0.842</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12558,34 +12558,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.974</v>
+        <v>1.052</v>
       </c>
       <c r="C12">
-        <v>0.946</v>
+        <v>1.021</v>
       </c>
       <c r="D12">
-        <v>0.958</v>
+        <v>1.034</v>
       </c>
       <c r="E12">
-        <v>0.982</v>
+        <v>1.064</v>
       </c>
       <c r="F12">
-        <v>0.975</v>
+        <v>1.048</v>
       </c>
       <c r="G12">
-        <v>1.013</v>
+        <v>1.091</v>
       </c>
       <c r="H12">
-        <v>0.975</v>
+        <v>1.052</v>
       </c>
       <c r="I12">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="J12">
-        <v>0.946</v>
+        <v>1.021</v>
       </c>
       <c r="K12">
-        <v>1.013</v>
+        <v>1.091</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12628,34 +12628,34 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>51.707</v>
+        <v>51.638</v>
       </c>
       <c r="C14">
-        <v>51.732</v>
+        <v>51.665</v>
       </c>
       <c r="D14">
-        <v>51.721</v>
+        <v>51.654</v>
       </c>
       <c r="E14">
-        <v>51.7</v>
+        <v>51.627</v>
       </c>
       <c r="F14">
-        <v>51.706</v>
+        <v>51.641</v>
       </c>
       <c r="G14">
-        <v>51.672</v>
+        <v>51.603</v>
       </c>
       <c r="H14">
-        <v>51.707</v>
+        <v>51.638</v>
       </c>
       <c r="I14">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="J14">
-        <v>51.672</v>
+        <v>51.603</v>
       </c>
       <c r="K14">
-        <v>51.732</v>
+        <v>51.665</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13048,34 +13048,34 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.495</v>
+        <v>7.417</v>
       </c>
       <c r="C27">
-        <v>7.523</v>
+        <v>7.448</v>
       </c>
       <c r="D27">
-        <v>7.511</v>
+        <v>7.435</v>
       </c>
       <c r="E27">
-        <v>7.487</v>
+        <v>7.405</v>
       </c>
       <c r="F27">
-        <v>7.494</v>
+        <v>7.421</v>
       </c>
       <c r="G27">
-        <v>7.456</v>
+        <v>7.378</v>
       </c>
       <c r="H27">
-        <v>7.495</v>
+        <v>7.417</v>
       </c>
       <c r="I27">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="J27">
-        <v>7.456</v>
+        <v>7.378</v>
       </c>
       <c r="K27">
-        <v>7.523</v>
+        <v>7.448</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -13083,34 +13083,34 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>0.974</v>
+        <v>1.052</v>
       </c>
       <c r="C28">
-        <v>0.946</v>
+        <v>1.021</v>
       </c>
       <c r="D28">
-        <v>0.958</v>
+        <v>1.034</v>
       </c>
       <c r="E28">
-        <v>0.982</v>
+        <v>1.064</v>
       </c>
       <c r="F28">
-        <v>0.975</v>
+        <v>1.048</v>
       </c>
       <c r="G28">
-        <v>1.013</v>
+        <v>1.091</v>
       </c>
       <c r="H28">
-        <v>0.975</v>
+        <v>1.052</v>
       </c>
       <c r="I28">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="J28">
-        <v>0.946</v>
+        <v>1.021</v>
       </c>
       <c r="K28">
-        <v>1.013</v>
+        <v>1.091</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -13223,34 +13223,34 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>19.47</v>
+        <v>19.495</v>
       </c>
       <c r="C33">
-        <v>19.462</v>
+        <v>19.486</v>
       </c>
       <c r="D33">
-        <v>19.465</v>
+        <v>19.49</v>
       </c>
       <c r="E33">
-        <v>19.473</v>
+        <v>19.499</v>
       </c>
       <c r="F33">
-        <v>19.471</v>
+        <v>19.494</v>
       </c>
       <c r="G33">
-        <v>19.483</v>
+        <v>19.508</v>
       </c>
       <c r="H33">
-        <v>19.471</v>
+        <v>19.495</v>
       </c>
       <c r="I33">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="J33">
-        <v>19.462</v>
+        <v>19.486</v>
       </c>
       <c r="K33">
-        <v>19.483</v>
+        <v>19.508</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -13258,34 +13258,34 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>4.59</v>
+        <v>4.595</v>
       </c>
       <c r="C34">
-        <v>4.587</v>
+        <v>4.593</v>
       </c>
       <c r="D34">
-        <v>4.588</v>
+        <v>4.594</v>
       </c>
       <c r="E34">
-        <v>4.59</v>
+        <v>4.596</v>
       </c>
       <c r="F34">
-        <v>4.59</v>
+        <v>4.595</v>
       </c>
       <c r="G34">
-        <v>4.592</v>
+        <v>4.598</v>
       </c>
       <c r="H34">
-        <v>4.59</v>
+        <v>4.595</v>
       </c>
       <c r="I34">
         <v>0.002</v>
       </c>
       <c r="J34">
-        <v>4.587</v>
+        <v>4.593</v>
       </c>
       <c r="K34">
-        <v>4.592</v>
+        <v>4.598</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -13308,7 +13308,7 @@
         <v>0.338</v>
       </c>
       <c r="G35">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="H35">
         <v>0.338</v>
@@ -13320,7 +13320,7 @@
         <v>0.338</v>
       </c>
       <c r="K35">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -13433,19 +13433,19 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="C39">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="D39">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="E39">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="F39">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="G39">
         <v>0.048</v>
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="K39">
         <v>0.048</v>
@@ -13468,34 +13468,34 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>0.878</v>
+        <v>0.879</v>
       </c>
       <c r="C40">
-        <v>0.878</v>
+        <v>0.879</v>
       </c>
       <c r="D40">
-        <v>0.878</v>
+        <v>0.879</v>
       </c>
       <c r="E40">
-        <v>0.878</v>
+        <v>0.879</v>
       </c>
       <c r="F40">
-        <v>0.878</v>
+        <v>0.879</v>
       </c>
       <c r="G40">
-        <v>0.878</v>
+        <v>0.88</v>
       </c>
       <c r="H40">
-        <v>0.878</v>
+        <v>0.879</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.878</v>
+        <v>0.879</v>
       </c>
       <c r="K40">
-        <v>0.878</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -13503,34 +13503,34 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>3.336</v>
+        <v>3.34</v>
       </c>
       <c r="C41">
-        <v>3.334</v>
+        <v>3.338</v>
       </c>
       <c r="D41">
-        <v>3.335</v>
+        <v>3.339</v>
       </c>
       <c r="E41">
-        <v>3.336</v>
+        <v>3.341</v>
       </c>
       <c r="F41">
-        <v>3.336</v>
+        <v>3.34</v>
       </c>
       <c r="G41">
-        <v>3.338</v>
+        <v>3.342</v>
       </c>
       <c r="H41">
-        <v>3.336</v>
+        <v>3.34</v>
       </c>
       <c r="I41">
         <v>0.001</v>
       </c>
       <c r="J41">
-        <v>3.334</v>
+        <v>3.338</v>
       </c>
       <c r="K41">
-        <v>3.338</v>
+        <v>3.342</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -13538,34 +13538,34 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>14.336</v>
+        <v>14.205</v>
       </c>
       <c r="C42">
-        <v>14.383</v>
+        <v>14.256</v>
       </c>
       <c r="D42">
-        <v>14.363</v>
+        <v>14.235</v>
       </c>
       <c r="E42">
-        <v>14.322</v>
+        <v>14.185</v>
       </c>
       <c r="F42">
-        <v>14.335</v>
+        <v>14.211</v>
       </c>
       <c r="G42">
-        <v>14.27</v>
+        <v>14.139</v>
       </c>
       <c r="H42">
-        <v>14.335</v>
+        <v>14.205</v>
       </c>
       <c r="I42">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="J42">
-        <v>14.27</v>
+        <v>14.139</v>
       </c>
       <c r="K42">
-        <v>14.383</v>
+        <v>14.256</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -13573,34 +13573,34 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>1.198</v>
+        <v>1.296</v>
       </c>
       <c r="C43">
-        <v>1.163</v>
+        <v>1.257</v>
       </c>
       <c r="D43">
-        <v>1.178</v>
+        <v>1.273</v>
       </c>
       <c r="E43">
-        <v>1.208</v>
+        <v>1.311</v>
       </c>
       <c r="F43">
-        <v>1.199</v>
+        <v>1.291</v>
       </c>
       <c r="G43">
-        <v>1.248</v>
+        <v>1.345</v>
       </c>
       <c r="H43">
-        <v>1.199</v>
+        <v>1.295</v>
       </c>
       <c r="I43">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="J43">
-        <v>1.163</v>
+        <v>1.257</v>
       </c>
       <c r="K43">
-        <v>1.248</v>
+        <v>1.345</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -13643,34 +13643,34 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>55.681</v>
+        <v>55.677</v>
       </c>
       <c r="C45">
-        <v>55.682</v>
+        <v>55.679</v>
       </c>
       <c r="D45">
-        <v>55.681</v>
+        <v>55.678</v>
       </c>
       <c r="E45">
-        <v>55.68</v>
+        <v>55.677</v>
       </c>
       <c r="F45">
-        <v>55.681</v>
+        <v>55.677</v>
       </c>
       <c r="G45">
-        <v>55.679</v>
+        <v>55.676</v>
       </c>
       <c r="H45">
-        <v>55.681</v>
+        <v>55.677</v>
       </c>
       <c r="I45">
         <v>0.001</v>
       </c>
       <c r="J45">
+        <v>55.676</v>
+      </c>
+      <c r="K45">
         <v>55.679</v>
-      </c>
-      <c r="K45">
-        <v>55.682</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -14079,34 +14079,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.8159999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="C11">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D11">
-        <v>0.819</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E11">
-        <v>0.8149999999999999</v>
+        <v>0.804</v>
       </c>
       <c r="F11">
-        <v>0.8159999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="G11">
-        <v>0.8110000000000001</v>
+        <v>0.801</v>
       </c>
       <c r="H11">
-        <v>0.8159999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="I11">
         <v>0.003</v>
       </c>
       <c r="J11">
-        <v>0.8110000000000001</v>
+        <v>0.801</v>
       </c>
       <c r="K11">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14114,34 +14114,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1.174</v>
+        <v>1.267</v>
       </c>
       <c r="C12">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="D12">
-        <v>1.154</v>
+        <v>1.246</v>
       </c>
       <c r="E12">
-        <v>1.183</v>
+        <v>1.282</v>
       </c>
       <c r="F12">
-        <v>1.174</v>
+        <v>1.263</v>
       </c>
       <c r="G12">
-        <v>1.221</v>
+        <v>1.314</v>
       </c>
       <c r="H12">
-        <v>1.174</v>
+        <v>1.267</v>
       </c>
       <c r="I12">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="J12">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="K12">
-        <v>1.221</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14184,34 +14184,34 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>51.53</v>
+        <v>51.447</v>
       </c>
       <c r="C14">
-        <v>51.56</v>
+        <v>51.48</v>
       </c>
       <c r="D14">
-        <v>51.547</v>
+        <v>51.466</v>
       </c>
       <c r="E14">
-        <v>51.522</v>
+        <v>51.434</v>
       </c>
       <c r="F14">
-        <v>51.529</v>
+        <v>51.451</v>
       </c>
       <c r="G14">
-        <v>51.488</v>
+        <v>51.405</v>
       </c>
       <c r="H14">
-        <v>51.529</v>
+        <v>51.447</v>
       </c>
       <c r="I14">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="J14">
-        <v>51.488</v>
+        <v>51.405</v>
       </c>
       <c r="K14">
-        <v>51.56</v>
+        <v>51.48</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14604,34 +14604,34 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.296</v>
+        <v>7.202</v>
       </c>
       <c r="C27">
-        <v>7.33</v>
+        <v>7.239</v>
       </c>
       <c r="D27">
-        <v>7.315</v>
+        <v>7.224</v>
       </c>
       <c r="E27">
-        <v>7.286</v>
+        <v>7.187</v>
       </c>
       <c r="F27">
-        <v>7.295</v>
+        <v>7.206</v>
       </c>
       <c r="G27">
-        <v>7.248</v>
+        <v>7.155</v>
       </c>
       <c r="H27">
-        <v>7.295</v>
+        <v>7.202</v>
       </c>
       <c r="I27">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="J27">
-        <v>7.248</v>
+        <v>7.155</v>
       </c>
       <c r="K27">
-        <v>7.33</v>
+        <v>7.239</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -14639,34 +14639,34 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <v>1.174</v>
+        <v>1.267</v>
       </c>
       <c r="C28">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="D28">
-        <v>1.154</v>
+        <v>1.246</v>
       </c>
       <c r="E28">
-        <v>1.183</v>
+        <v>1.282</v>
       </c>
       <c r="F28">
-        <v>1.174</v>
+        <v>1.263</v>
       </c>
       <c r="G28">
-        <v>1.221</v>
+        <v>1.314</v>
       </c>
       <c r="H28">
-        <v>1.174</v>
+        <v>1.267</v>
       </c>
       <c r="I28">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="J28">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="K28">
-        <v>1.221</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -14779,34 +14779,34 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>19.534</v>
+        <v>19.564</v>
       </c>
       <c r="C33">
-        <v>19.523</v>
+        <v>19.553</v>
       </c>
       <c r="D33">
-        <v>19.528</v>
+        <v>19.558</v>
       </c>
       <c r="E33">
-        <v>19.537</v>
+        <v>19.569</v>
       </c>
       <c r="F33">
-        <v>19.534</v>
+        <v>19.563</v>
       </c>
       <c r="G33">
-        <v>19.55</v>
+        <v>19.58</v>
       </c>
       <c r="H33">
-        <v>19.535</v>
+        <v>19.564</v>
       </c>
       <c r="I33">
         <v>0.008999999999999999</v>
       </c>
       <c r="J33">
-        <v>19.523</v>
+        <v>19.553</v>
       </c>
       <c r="K33">
-        <v>19.55</v>
+        <v>19.58</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -14814,34 +14814,34 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>4.604</v>
+        <v>4.612</v>
       </c>
       <c r="C34">
-        <v>4.602</v>
+        <v>4.609</v>
       </c>
       <c r="D34">
-        <v>4.603</v>
+        <v>4.61</v>
       </c>
       <c r="E34">
-        <v>4.605</v>
+        <v>4.613</v>
       </c>
       <c r="F34">
-        <v>4.605</v>
+        <v>4.611</v>
       </c>
       <c r="G34">
-        <v>4.608</v>
+        <v>4.615</v>
       </c>
       <c r="H34">
-        <v>4.605</v>
+        <v>4.612</v>
       </c>
       <c r="I34">
         <v>0.002</v>
       </c>
       <c r="J34">
-        <v>4.602</v>
+        <v>4.609</v>
       </c>
       <c r="K34">
-        <v>4.608</v>
+        <v>4.615</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -14849,25 +14849,25 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="C35">
         <v>0.339</v>
       </c>
       <c r="D35">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="E35">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="F35">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="G35">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="H35">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -14876,7 +14876,7 @@
         <v>0.339</v>
       </c>
       <c r="K35">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -14899,7 +14899,7 @@
         <v>0.107</v>
       </c>
       <c r="G36">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="H36">
         <v>0.107</v>
@@ -14911,7 +14911,7 @@
         <v>0.107</v>
       </c>
       <c r="K36">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -15024,34 +15024,34 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>0.881</v>
+        <v>0.882</v>
       </c>
       <c r="C40">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
       <c r="D40">
-        <v>0.881</v>
+        <v>0.882</v>
       </c>
       <c r="E40">
-        <v>0.881</v>
+        <v>0.882</v>
       </c>
       <c r="F40">
-        <v>0.881</v>
+        <v>0.882</v>
       </c>
       <c r="G40">
+        <v>0.883</v>
+      </c>
+      <c r="H40">
         <v>0.882</v>
       </c>
-      <c r="H40">
-        <v>0.881</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
       <c r="K40">
-        <v>0.882</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -15059,34 +15059,34 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>3.347</v>
+        <v>3.352</v>
       </c>
       <c r="C41">
-        <v>3.345</v>
+        <v>3.35</v>
       </c>
       <c r="D41">
-        <v>3.346</v>
+        <v>3.351</v>
       </c>
       <c r="E41">
-        <v>3.347</v>
+        <v>3.353</v>
       </c>
       <c r="F41">
-        <v>3.347</v>
+        <v>3.352</v>
       </c>
       <c r="G41">
-        <v>3.349</v>
+        <v>3.355</v>
       </c>
       <c r="H41">
-        <v>3.347</v>
+        <v>3.352</v>
       </c>
       <c r="I41">
         <v>0.002</v>
       </c>
       <c r="J41">
-        <v>3.345</v>
+        <v>3.35</v>
       </c>
       <c r="K41">
-        <v>3.349</v>
+        <v>3.355</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -15094,34 +15094,34 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>14</v>
+        <v>13.842</v>
       </c>
       <c r="C42">
-        <v>14.057</v>
+        <v>13.904</v>
       </c>
       <c r="D42">
-        <v>14.033</v>
+        <v>13.878</v>
       </c>
       <c r="E42">
-        <v>13.984</v>
+        <v>13.817</v>
       </c>
       <c r="F42">
-        <v>13.999</v>
+        <v>13.849</v>
       </c>
       <c r="G42">
-        <v>13.92</v>
+        <v>13.762</v>
       </c>
       <c r="H42">
-        <v>13.999</v>
+        <v>13.842</v>
       </c>
       <c r="I42">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="J42">
-        <v>13.92</v>
+        <v>13.762</v>
       </c>
       <c r="K42">
-        <v>14.057</v>
+        <v>13.904</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -15129,34 +15129,34 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>1.448</v>
+        <v>1.566</v>
       </c>
       <c r="C43">
-        <v>1.406</v>
+        <v>1.52</v>
       </c>
       <c r="D43">
-        <v>1.424</v>
+        <v>1.539</v>
       </c>
       <c r="E43">
-        <v>1.46</v>
+        <v>1.585</v>
       </c>
       <c r="F43">
-        <v>1.449</v>
+        <v>1.561</v>
       </c>
       <c r="G43">
-        <v>1.508</v>
+        <v>1.626</v>
       </c>
       <c r="H43">
-        <v>1.449</v>
+        <v>1.566</v>
       </c>
       <c r="I43">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="J43">
-        <v>1.406</v>
+        <v>1.52</v>
       </c>
       <c r="K43">
-        <v>1.508</v>
+        <v>1.626</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -15199,34 +15199,34 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>55.672</v>
+        <v>55.668</v>
       </c>
       <c r="C45">
-        <v>55.673</v>
+        <v>55.669</v>
       </c>
       <c r="D45">
-        <v>55.673</v>
+        <v>55.669</v>
       </c>
       <c r="E45">
-        <v>55.671</v>
+        <v>55.667</v>
       </c>
       <c r="F45">
-        <v>55.672</v>
+        <v>55.668</v>
       </c>
       <c r="G45">
-        <v>55.67</v>
+        <v>55.666</v>
       </c>
       <c r="H45">
-        <v>55.672</v>
+        <v>55.668</v>
       </c>
       <c r="I45">
         <v>0.001</v>
       </c>
       <c r="J45">
-        <v>55.67</v>
+        <v>55.666</v>
       </c>
       <c r="K45">
-        <v>55.673</v>
+        <v>55.669</v>
       </c>
     </row>
     <row r="46" spans="1:11">
